--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -617,7 +617,7 @@
         <v>13.31602485128389</v>
       </c>
       <c r="P2" t="n">
-        <v>3.986826670482376</v>
+        <v>3.986826670482377</v>
       </c>
       <c r="Q2" t="n">
         <v>2.10029630681718</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.01066632247257</v>
+        <v>-17.01066632247258</v>
       </c>
       <c r="E3" t="n">
         <v>-12.84716772060811</v>
@@ -673,34 +673,34 @@
         <v>-20.3778792345042</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.7734304405462</v>
+        <v>-14.77343044054619</v>
       </c>
       <c r="H3" t="n">
         <v>-10.81820558461252</v>
       </c>
       <c r="I3" t="n">
-        <v>-18.54517214821293</v>
+        <v>-18.54517214821292</v>
       </c>
       <c r="J3" t="n">
         <v>-2.262576374466226</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.11734307984333</v>
+        <v>-2.117343079843332</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.366161547810872</v>
+        <v>-2.366161547810876</v>
       </c>
       <c r="M3" t="n">
         <v>10.27102827948268</v>
       </c>
       <c r="N3" t="n">
-        <v>6.962465303174882</v>
+        <v>6.962465303174883</v>
       </c>
       <c r="O3" t="n">
         <v>13.38163059520225</v>
       </c>
       <c r="P3" t="n">
-        <v>6.047737010030046</v>
+        <v>6.047737010030045</v>
       </c>
       <c r="Q3" t="n">
         <v>3.444314948286278</v>
@@ -730,7 +730,7 @@
         <v>0.4230860393703485</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04318113383173602</v>
+        <v>0.04318113383173604</v>
       </c>
       <c r="AA3" t="n">
         <v>1.111224218903518</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-13.10854736139219</v>
+        <v>-13.1085473613922</v>
       </c>
       <c r="E4" t="n">
         <v>-9.867950123607265</v>
@@ -759,7 +759,7 @@
         <v>-12.46868035430979</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.296704658145547</v>
+        <v>-9.296704658145543</v>
       </c>
       <c r="I4" t="n">
         <v>-15.53455081631378</v>
@@ -768,10 +768,10 @@
         <v>2.198092658458899</v>
       </c>
       <c r="K4" t="n">
-        <v>1.328297255873952</v>
+        <v>1.328297255873951</v>
       </c>
       <c r="L4" t="n">
-        <v>2.954214288878873</v>
+        <v>2.954214288878871</v>
       </c>
       <c r="M4" t="n">
         <v>13.72394553091962</v>
@@ -783,10 +783,10 @@
         <v>17.86885674015146</v>
       </c>
       <c r="P4" t="n">
-        <v>6.629465760514477</v>
+        <v>6.629465760514476</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.804975873106457</v>
+        <v>3.804975873106458</v>
       </c>
       <c r="R4" t="n">
         <v>9.894352885912353</v>
@@ -813,7 +813,7 @@
         <v>0.3868648373728687</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04406469790001709</v>
+        <v>0.04406469790001711</v>
       </c>
       <c r="AA4" t="n">
         <v>1.012681349395254</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.458355711609915</v>
+        <v>-8.458355711609919</v>
       </c>
       <c r="E5" t="n">
         <v>-6.648162002484486</v>
@@ -842,7 +842,7 @@
         <v>-6.661193469873806</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.220120732591487</v>
+        <v>-5.220120732591483</v>
       </c>
       <c r="I5" t="n">
         <v>-7.799763248044362</v>
@@ -851,22 +851,22 @@
         <v>-4.219729257366996</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.920051636185129</v>
+        <v>-3.92005163618513</v>
       </c>
       <c r="L5" t="n">
         <v>-4.089378076652935</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19316954137409</v>
+        <v>1.193169541374091</v>
       </c>
       <c r="N5" t="n">
-        <v>0.135541944705345</v>
+        <v>0.1355419447053485</v>
       </c>
       <c r="O5" t="n">
-        <v>2.473012348478965</v>
+        <v>2.473012348478962</v>
       </c>
       <c r="P5" t="n">
-        <v>3.46384060327147</v>
+        <v>3.463840603271469</v>
       </c>
       <c r="Q5" t="n">
         <v>1.866326706172795</v>
@@ -913,16 +913,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.108651597005977</v>
+        <v>2.108651597005975</v>
       </c>
       <c r="E6" t="n">
         <v>1.270122963987725</v>
       </c>
       <c r="F6" t="n">
-        <v>2.997811955574733</v>
+        <v>2.997811955574734</v>
       </c>
       <c r="G6" t="n">
-        <v>3.653554865094247</v>
+        <v>3.653554865094246</v>
       </c>
       <c r="H6" t="n">
         <v>2.089565648685562</v>
@@ -937,16 +937,16 @@
         <v>1.761370663441581</v>
       </c>
       <c r="L6" t="n">
-        <v>5.67126938320825</v>
+        <v>5.671269383208251</v>
       </c>
       <c r="M6" t="n">
         <v>3.250969022845548</v>
       </c>
       <c r="N6" t="n">
-        <v>1.460544789180335</v>
+        <v>1.460544789180337</v>
       </c>
       <c r="O6" t="n">
-        <v>5.442627863805653</v>
+        <v>5.442627863805651</v>
       </c>
       <c r="P6" t="n">
         <v>3.164689657078535</v>
@@ -970,7 +970,7 @@
         <v>1.143102638114401</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4102207063653327</v>
+        <v>0.4102207063653328</v>
       </c>
       <c r="X6" t="n">
         <v>2.20774702867151</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.170654902640366</v>
+        <v>-2.170654902640368</v>
       </c>
       <c r="E7" t="n">
         <v>-1.629638095513875</v>
@@ -1005,13 +1005,13 @@
         <v>-2.616066532606232</v>
       </c>
       <c r="G7" t="n">
-        <v>3.998787313599125</v>
+        <v>3.998787313599126</v>
       </c>
       <c r="H7" t="n">
-        <v>2.958980888374501</v>
+        <v>2.958980888374504</v>
       </c>
       <c r="I7" t="n">
-        <v>4.977349942006546</v>
+        <v>4.977349942006548</v>
       </c>
       <c r="J7" t="n">
         <v>13.93888976608804</v>
@@ -1035,7 +1035,7 @@
         <v>6.513836329313449</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.631653440310708</v>
+        <v>3.631653440310709</v>
       </c>
       <c r="R7" t="n">
         <v>10.07600146181092</v>
@@ -1053,7 +1053,7 @@
         <v>1.407841841997417</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5619453518832451</v>
+        <v>0.5619453518832452</v>
       </c>
       <c r="X7" t="n">
         <v>2.611027148336221</v>
@@ -1062,7 +1062,7 @@
         <v>0.2875471148799197</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03209161070284917</v>
+        <v>0.03209161070284919</v>
       </c>
       <c r="AA7" t="n">
         <v>0.7365628009190169</v>
@@ -1079,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.621507879321247</v>
+        <v>4.621507879321249</v>
       </c>
       <c r="E8" t="n">
         <v>3.768770173653829</v>
       </c>
       <c r="F8" t="n">
-        <v>5.04258533388862</v>
+        <v>5.042585333888621</v>
       </c>
       <c r="G8" t="n">
-        <v>14.1090582046857</v>
+        <v>14.10905820468571</v>
       </c>
       <c r="H8" t="n">
         <v>10.64886847522963</v>
       </c>
       <c r="I8" t="n">
-        <v>17.14372990080359</v>
+        <v>17.1437299008036</v>
       </c>
       <c r="J8" t="n">
         <v>32.16377214451265</v>
@@ -1106,10 +1106,10 @@
         <v>40.07970413475768</v>
       </c>
       <c r="M8" t="n">
-        <v>35.93669715944007</v>
+        <v>35.93669715944006</v>
       </c>
       <c r="N8" t="n">
-        <v>25.74613255743129</v>
+        <v>25.74613255743128</v>
       </c>
       <c r="O8" t="n">
         <v>45.79276463046536</v>
@@ -1118,7 +1118,7 @@
         <v>9.62071880328293</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.443611283068576</v>
+        <v>5.443611283068577</v>
       </c>
       <c r="R8" t="n">
         <v>14.99491575579115</v>
@@ -1145,10 +1145,10 @@
         <v>0.218572424702647</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03923509525019421</v>
+        <v>0.03923509525019424</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5000165774944523</v>
+        <v>0.5000165774944524</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.176427654409475</v>
+        <v>-3.176427654409479</v>
       </c>
       <c r="E9" t="n">
         <v>-2.589148619468275</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.489025227416099</v>
+        <v>-3.489025227416097</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6968561645307556</v>
+        <v>0.6968561645307574</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2689512908967666</v>
+        <v>0.2689512908967684</v>
       </c>
       <c r="I9" t="n">
         <v>1.275145572023233</v>
@@ -1192,19 +1192,19 @@
         <v>7.583827957001093</v>
       </c>
       <c r="N9" t="n">
-        <v>4.825380513962925</v>
+        <v>4.825380513962926</v>
       </c>
       <c r="O9" t="n">
-        <v>10.52991855302724</v>
+        <v>10.52991855302723</v>
       </c>
       <c r="P9" t="n">
-        <v>4.342864364602816</v>
+        <v>4.342864364602815</v>
       </c>
       <c r="Q9" t="n">
         <v>2.354493012713381</v>
       </c>
       <c r="R9" t="n">
-        <v>6.718567483804256</v>
+        <v>6.718567483804257</v>
       </c>
       <c r="S9" t="n">
         <v>2.63779424415905</v>
@@ -1228,10 +1228,10 @@
         <v>0.3020280329174196</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02439640142305777</v>
+        <v>0.02439640142305778</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8133149305180106</v>
+        <v>0.8133149305180105</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.384277265776386</v>
+        <v>7.384277265776388</v>
       </c>
       <c r="E10" t="n">
         <v>5.728619946124357</v>
@@ -1254,7 +1254,7 @@
         <v>8.658908986300901</v>
       </c>
       <c r="G10" t="n">
-        <v>19.81430636718095</v>
+        <v>19.81430636718096</v>
       </c>
       <c r="H10" t="n">
         <v>14.91555300357273</v>
@@ -1269,7 +1269,7 @@
         <v>22.28406197438636</v>
       </c>
       <c r="L10" t="n">
-        <v>39.19959992123938</v>
+        <v>39.19959992123937</v>
       </c>
       <c r="M10" t="n">
         <v>31.08866213803764</v>
@@ -1284,7 +1284,7 @@
         <v>8.158110356121133</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.514723836151971</v>
+        <v>4.514723836151972</v>
       </c>
       <c r="R10" t="n">
         <v>12.90726750493511</v>
@@ -1308,10 +1308,10 @@
         <v>2.113423387938088</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1965082024555608</v>
+        <v>0.1965082024555607</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.02866930836894796</v>
+        <v>0.02866930836894797</v>
       </c>
       <c r="AA10" t="n">
         <v>0.4542662584588322</v>
@@ -1331,7 +1331,7 @@
         <v>7.761464804342352</v>
       </c>
       <c r="E11" t="n">
-        <v>5.649163408625114</v>
+        <v>5.649163408625115</v>
       </c>
       <c r="F11" t="n">
         <v>9.731735476407952</v>
@@ -1340,19 +1340,19 @@
         <v>17.16432383243968</v>
       </c>
       <c r="H11" t="n">
-        <v>12.52463683741682</v>
+        <v>12.52463683741681</v>
       </c>
       <c r="I11" t="n">
         <v>21.78704633034356</v>
       </c>
       <c r="J11" t="n">
-        <v>16.11108914126447</v>
+        <v>16.11108914126446</v>
       </c>
       <c r="K11" t="n">
         <v>10.86427529604561</v>
       </c>
       <c r="L11" t="n">
-        <v>21.55841309688839</v>
+        <v>21.55841309688838</v>
       </c>
       <c r="M11" t="n">
         <v>12.37329816776387</v>
@@ -1361,16 +1361,16 @@
         <v>8.385894245549304</v>
       </c>
       <c r="O11" t="n">
-        <v>16.70219569381292</v>
+        <v>16.70219569381293</v>
       </c>
       <c r="P11" t="n">
-        <v>4.227234933401788</v>
+        <v>4.227234933401787</v>
       </c>
       <c r="Q11" t="n">
         <v>2.181170579917632</v>
       </c>
       <c r="R11" t="n">
-        <v>6.900216059702824</v>
+        <v>6.900216059702825</v>
       </c>
       <c r="S11" t="n">
         <v>2.103317845479122</v>
@@ -1394,10 +1394,10 @@
         <v>0.2027103104244707</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01242331422588986</v>
+        <v>0.01242331422588985</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5371963820417732</v>
+        <v>0.5371963820417733</v>
       </c>
     </row>
     <row r="12">
@@ -1423,16 +1423,16 @@
         <v>16.8190913839348</v>
       </c>
       <c r="H12" t="n">
-        <v>11.65522159772788</v>
+        <v>11.65522159772787</v>
       </c>
       <c r="I12" t="n">
         <v>22.2360799479368</v>
       </c>
       <c r="J12" t="n">
-        <v>5.696441677300546</v>
+        <v>5.696441677300545</v>
       </c>
       <c r="K12" t="n">
-        <v>2.890128953422139</v>
+        <v>2.89012895342214</v>
       </c>
       <c r="L12" t="n">
         <v>9.237602109227144</v>
@@ -1450,7 +1450,7 @@
         <v>0.8780882611668734</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2082782485034724</v>
+        <v>0.208278248503472</v>
       </c>
       <c r="R12" t="n">
         <v>1.819752066868804</v>
@@ -1459,7 +1459,7 @@
         <v>1.129956993610117</v>
       </c>
       <c r="T12" t="n">
-        <v>0.398988208588919</v>
+        <v>0.3989882085889191</v>
       </c>
       <c r="U12" t="n">
         <v>2.092531949565357</v>
@@ -1477,7 +1477,7 @@
         <v>0.1726912163959008</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.002939115848887175</v>
+        <v>-0.002939115848887196</v>
       </c>
       <c r="AA12" t="n">
         <v>0.5215836361164503</v>
@@ -1506,7 +1506,7 @@
         <v>28.57849195218044</v>
       </c>
       <c r="H13" t="n">
-        <v>20.81275128691559</v>
+        <v>20.81275128691558</v>
       </c>
       <c r="I13" t="n">
         <v>36.23465960049543</v>
@@ -1524,7 +1524,7 @@
         <v>14.22502721433657</v>
       </c>
       <c r="N13" t="n">
-        <v>9.662271135572116</v>
+        <v>9.662271135572114</v>
       </c>
       <c r="O13" t="n">
         <v>19.30479277499955</v>
@@ -1533,7 +1533,7 @@
         <v>3.814310491353845</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.880342765401477</v>
+        <v>1.880342765401476</v>
       </c>
       <c r="R13" t="n">
         <v>6.519895419231823</v>
@@ -1560,7 +1560,7 @@
         <v>0.1171780001100182</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.002465229046701496</v>
+        <v>0.002465229046701481</v>
       </c>
       <c r="AA13" t="n">
         <v>0.3130061465851036</v>
@@ -1601,7 +1601,7 @@
         <v>14.2070809338839</v>
       </c>
       <c r="L14" t="n">
-        <v>26.87262361721238</v>
+        <v>26.87262361721237</v>
       </c>
       <c r="M14" t="n">
         <v>15.72318020175143</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09395489925273903</v>
+        <v>0.09395489925273548</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4491562843608641</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9766478485334478</v>
+        <v>0.9766478485334469</v>
       </c>
       <c r="G15" t="n">
         <v>1.451043500798583</v>
@@ -1675,7 +1675,7 @@
         <v>0.3779641194295484</v>
       </c>
       <c r="I15" t="n">
-        <v>2.945645652124197</v>
+        <v>2.945645652124195</v>
       </c>
       <c r="J15" t="n">
         <v>-6.176882140267764</v>
@@ -1684,22 +1684,22 @@
         <v>-5.722760192526929</v>
       </c>
       <c r="L15" t="n">
-        <v>-5.812594605494997</v>
+        <v>-5.812594605494994</v>
       </c>
       <c r="M15" t="n">
         <v>-7.884689196734499</v>
       </c>
       <c r="N15" t="n">
-        <v>-6.691381413764192</v>
+        <v>-6.691381413764186</v>
       </c>
       <c r="O15" t="n">
-        <v>-8.43560589824432</v>
+        <v>-8.435605898244324</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8799441965128949</v>
+        <v>0.8799441965128945</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2883384640593123</v>
+        <v>0.2883384640593118</v>
       </c>
       <c r="R15" t="n">
         <v>1.49225619655876</v>
@@ -1723,10 +1723,10 @@
         <v>2.182851575998193</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2809832548164431</v>
+        <v>0.2809832548164432</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.007874544913776496</v>
+        <v>0.007874544913776479</v>
       </c>
       <c r="AA15" t="n">
         <v>0.8163480071881661</v>
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.099727651021851</v>
+        <v>1.099727651021849</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5103542395935357</v>
+        <v>0.5103542395935352</v>
       </c>
       <c r="F16" t="n">
-        <v>1.849606543343312</v>
+        <v>1.849606543343313</v>
       </c>
       <c r="G16" t="n">
         <v>4.752974649866951</v>
@@ -1758,22 +1758,22 @@
         <v>3.067993716907284</v>
       </c>
       <c r="I16" t="n">
-        <v>6.647850022107512</v>
+        <v>6.647850022107511</v>
       </c>
       <c r="J16" t="n">
         <v>3.391715592184944</v>
       </c>
       <c r="K16" t="n">
-        <v>1.555701267683611</v>
+        <v>1.55570126768361</v>
       </c>
       <c r="L16" t="n">
-        <v>5.658938750476732</v>
+        <v>5.658938750476734</v>
       </c>
       <c r="M16" t="n">
         <v>3.044898587946799</v>
       </c>
       <c r="N16" t="n">
-        <v>1.411918834728157</v>
+        <v>1.411918834728159</v>
       </c>
       <c r="O16" t="n">
         <v>5.075609429665592</v>
@@ -1782,7 +1782,7 @@
         <v>3.050916161223528</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56549889165664</v>
+        <v>1.565498891656639</v>
       </c>
       <c r="R16" t="n">
         <v>4.849690174565424</v>
@@ -1838,7 +1838,7 @@
         <v>14.62025181438939</v>
       </c>
       <c r="H17" t="n">
-        <v>9.698365461284432</v>
+        <v>9.698365461284428</v>
       </c>
       <c r="I17" t="n">
         <v>19.79314702292135</v>
@@ -1847,16 +1847,16 @@
         <v>5.961495097178886</v>
       </c>
       <c r="K17" t="n">
-        <v>3.30146774493808</v>
+        <v>3.301467744938081</v>
       </c>
       <c r="L17" t="n">
-        <v>9.262263374690178</v>
+        <v>9.26226337469018</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.477007681275477</v>
+        <v>-2.477007681275479</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.984989818821279</v>
+        <v>-2.984989818821277</v>
       </c>
       <c r="O17" t="n">
         <v>-1.162273455038454</v>
@@ -1865,16 +1865,16 @@
         <v>1.105635252876887</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3948026829832909</v>
+        <v>0.3948026829832905</v>
       </c>
       <c r="R17" t="n">
-        <v>2.111446655691757</v>
+        <v>2.111446655691756</v>
       </c>
       <c r="S17" t="n">
         <v>1.119626669562747</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4040391030317029</v>
+        <v>0.404039103031703</v>
       </c>
       <c r="U17" t="n">
         <v>2.104341118362895</v>
@@ -1892,7 +1892,7 @@
         <v>0.154742584540714</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.0006202629798786816</v>
+        <v>-0.0006202629798786989</v>
       </c>
       <c r="AA17" t="n">
         <v>0.4842919909254931</v>
@@ -1915,13 +1915,13 @@
         <v>-9.108181399213077</v>
       </c>
       <c r="F18" t="n">
-        <v>-14.68862182419887</v>
+        <v>-14.68862182419886</v>
       </c>
       <c r="G18" t="n">
         <v>-13.5681001390825</v>
       </c>
       <c r="H18" t="n">
-        <v>-10.27513272636727</v>
+        <v>-10.27513272636726</v>
       </c>
       <c r="I18" t="n">
         <v>-16.7560172788215</v>
@@ -1930,10 +1930,10 @@
         <v>2.33061936839807</v>
       </c>
       <c r="K18" t="n">
-        <v>1.533966651631923</v>
+        <v>1.533966651631922</v>
       </c>
       <c r="L18" t="n">
-        <v>2.966544921610391</v>
+        <v>2.966544921610389</v>
       </c>
       <c r="M18" t="n">
         <v>13.93001596581837</v>
@@ -1945,7 +1945,7 @@
         <v>18.23587517429152</v>
       </c>
       <c r="P18" t="n">
-        <v>6.743239256369484</v>
+        <v>6.743239256369483</v>
       </c>
       <c r="Q18" t="n">
         <v>3.898238090346367</v>
@@ -1975,7 +1975,7 @@
         <v>0.3778905214452752</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.04522412433452133</v>
+        <v>0.04522412433452136</v>
       </c>
       <c r="AA18" t="n">
         <v>0.9940355267997757</v>
@@ -2007,7 +2007,7 @@
         <v>17.63350765532699</v>
       </c>
       <c r="I19" t="n">
-        <v>31.92172199925826</v>
+        <v>31.92172199925825</v>
       </c>
       <c r="J19" t="n">
         <v>14.22019961333328</v>
@@ -2022,16 +2022,16 @@
         <v>3.39847464710465</v>
       </c>
       <c r="N19" t="n">
-        <v>1.583283864305856</v>
+        <v>1.583283864305857</v>
       </c>
       <c r="O19" t="n">
-        <v>5.977086664159666</v>
+        <v>5.977086664159668</v>
       </c>
       <c r="P19" t="n">
         <v>1.700225274570716</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6498134464241037</v>
+        <v>0.6498134464241032</v>
       </c>
       <c r="R19" t="n">
         <v>3.235385088430897</v>
@@ -2058,7 +2058,7 @@
         <v>0.1271717601837213</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.004650267015837782</v>
+        <v>-0.004650267015837803</v>
       </c>
       <c r="AA19" t="n">
         <v>0.3804353648863579</v>
@@ -2084,10 +2084,10 @@
         <v>13.67507549709356</v>
       </c>
       <c r="G20" t="n">
-        <v>11.76579183576664</v>
+        <v>11.76579183576663</v>
       </c>
       <c r="H20" t="n">
-        <v>7.687650500706596</v>
+        <v>7.687650500706594</v>
       </c>
       <c r="I20" t="n">
         <v>16.17179245976835</v>
@@ -2099,22 +2099,22 @@
         <v>-0.04133789290021816</v>
       </c>
       <c r="L20" t="n">
-        <v>3.948052854366189</v>
+        <v>3.948052854366193</v>
       </c>
       <c r="M20" t="n">
         <v>-5.826889715263039</v>
       </c>
       <c r="N20" t="n">
-        <v>-5.366378569289203</v>
+        <v>-5.366378569289199</v>
       </c>
       <c r="O20" t="n">
-        <v>-5.465990382917637</v>
+        <v>-5.465990382917633</v>
       </c>
       <c r="P20" t="n">
         <v>0.5807932503199593</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08077286678306583</v>
+        <v>0.08077286678306539</v>
       </c>
       <c r="R20" t="n">
         <v>1.257782850499234</v>
@@ -2138,10 +2138,10 @@
         <v>1.570620362253307</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1864766285743971</v>
+        <v>0.1864766285743972</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.0009241138309076247</v>
+        <v>-0.000924113830907642</v>
       </c>
       <c r="AA20" t="n">
         <v>0.5735119491360179</v>
@@ -2158,22 +2158,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.987149914348991</v>
+        <v>2.987149914348988</v>
       </c>
       <c r="E21" t="n">
         <v>1.770292588245788</v>
       </c>
       <c r="F21" t="n">
-        <v>4.36949443437594</v>
+        <v>4.369494434375941</v>
       </c>
       <c r="G21" t="n">
-        <v>4.855213371807689</v>
+        <v>4.855213371807688</v>
       </c>
       <c r="H21" t="n">
         <v>2.877893114118244</v>
       </c>
       <c r="I21" t="n">
-        <v>7.177733446531064</v>
+        <v>7.177733446531061</v>
       </c>
       <c r="J21" t="n">
         <v>-1.848739817281809</v>
@@ -2182,22 +2182,22 @@
         <v>-2.482789252567615</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.5045494015367673</v>
+        <v>-0.5045494015367638</v>
       </c>
       <c r="M21" t="n">
-        <v>-4.637842380196311</v>
+        <v>-4.637842380196309</v>
       </c>
       <c r="N21" t="n">
         <v>-4.334305640522355</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.31539818743517</v>
+        <v>-4.315398187435173</v>
       </c>
       <c r="P21" t="n">
         <v>1.347899451142319</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5557371716395825</v>
+        <v>0.5557371716395823</v>
       </c>
       <c r="R21" t="n">
         <v>2.272996354545544</v>
@@ -2221,10 +2221,10 @@
         <v>2.043495302453087</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2537363687465566</v>
+        <v>0.2537363687465567</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.007598682547553316</v>
+        <v>0.0075986825475533</v>
       </c>
       <c r="AA21" t="n">
         <v>0.7364509602753807</v>
@@ -2250,7 +2250,7 @@
         <v>13.4234380509446</v>
       </c>
       <c r="G22" t="n">
-        <v>24.4201347449035</v>
+        <v>24.42013474490351</v>
       </c>
       <c r="H22" t="n">
         <v>18.20380946369411</v>
@@ -2265,13 +2265,13 @@
         <v>21.27987299833648</v>
       </c>
       <c r="L22" t="n">
-        <v>38.33182634045259</v>
+        <v>38.33182634045258</v>
       </c>
       <c r="M22" t="n">
-        <v>26.44669755153398</v>
+        <v>26.44669755153397</v>
       </c>
       <c r="N22" t="n">
-        <v>18.8219572900574</v>
+        <v>18.82195729005739</v>
       </c>
       <c r="O22" t="n">
         <v>34.15010951546196</v>
@@ -2283,7 +2283,7 @@
         <v>3.679098606475275</v>
       </c>
       <c r="R22" t="n">
-        <v>10.96546654849053</v>
+        <v>10.96546654849054</v>
       </c>
       <c r="S22" t="n">
         <v>2.560289477764266</v>
@@ -2307,7 +2307,7 @@
         <v>0.1654696642808811</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01926294792220595</v>
+        <v>0.01926294792220596</v>
       </c>
       <c r="AA22" t="n">
         <v>0.3898701168277334</v>
@@ -2333,40 +2333,40 @@
         <v>8.611690443755698</v>
       </c>
       <c r="G23" t="n">
-        <v>3.308322416589371</v>
+        <v>3.308322416589365</v>
       </c>
       <c r="H23" t="n">
-        <v>1.220150408996622</v>
+        <v>1.220150408996621</v>
       </c>
       <c r="I23" t="n">
         <v>5.875417177193031</v>
       </c>
       <c r="J23" t="n">
-        <v>-6.890405161839809</v>
+        <v>-6.890405161839805</v>
       </c>
       <c r="K23" t="n">
         <v>-6.212775679181886</v>
       </c>
       <c r="L23" t="n">
-        <v>-6.649541604452992</v>
+        <v>-6.649541604452988</v>
       </c>
       <c r="M23" t="n">
-        <v>-12.0114776959913</v>
+        <v>-12.01147769599129</v>
       </c>
       <c r="N23" t="n">
         <v>-10.0075911840946</v>
       </c>
       <c r="O23" t="n">
-        <v>-13.15587815332584</v>
+        <v>-13.15587815332585</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.1844570151563802</v>
+        <v>-0.1844570151563794</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.3141312225176107</v>
+        <v>-0.3141312225176112</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.08492652385712063</v>
+        <v>-0.08492652385712152</v>
       </c>
       <c r="S23" t="n">
         <v>1.160961633771981</v>
@@ -2390,7 +2390,7 @@
         <v>0.22750892682278</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.001366750553295108</v>
+        <v>0.001366750553295087</v>
       </c>
       <c r="AA23" t="n">
         <v>0.705337309068371</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5952656780297891</v>
+        <v>0.5952656780297856</v>
       </c>
       <c r="E24" t="n">
         <v>0.1304698773964414</v>
@@ -2416,13 +2416,13 @@
         <v>1.275503837227602</v>
       </c>
       <c r="G24" t="n">
-        <v>5.302684542253303</v>
+        <v>5.302684542253305</v>
       </c>
       <c r="H24" t="n">
         <v>3.557207751018145</v>
       </c>
       <c r="I24" t="n">
-        <v>7.258583253361373</v>
+        <v>7.258583253361372</v>
       </c>
       <c r="J24" t="n">
         <v>3.325452237215359</v>
@@ -2431,13 +2431,13 @@
         <v>1.452866569804626</v>
       </c>
       <c r="L24" t="n">
-        <v>5.652773434110973</v>
+        <v>5.652773434110976</v>
       </c>
       <c r="M24" t="n">
         <v>2.941863370497424</v>
       </c>
       <c r="N24" t="n">
-        <v>1.387605857502068</v>
+        <v>1.387605857502069</v>
       </c>
       <c r="O24" t="n">
         <v>4.892100212595562</v>
@@ -2449,7 +2449,7 @@
         <v>1.518867783036685</v>
       </c>
       <c r="R24" t="n">
-        <v>4.776766527359685</v>
+        <v>4.776766527359686</v>
       </c>
       <c r="S24" t="n">
         <v>2.142070228676514</v>
@@ -2467,13 +2467,13 @@
         <v>0.4316088144946709</v>
       </c>
       <c r="X24" t="n">
-        <v>2.252613029008228</v>
+        <v>2.252613029008229</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2709894947427399</v>
+        <v>0.27098949474274</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01499004097631577</v>
+        <v>0.01499004097631576</v>
       </c>
       <c r="AA24" t="n">
         <v>0.7489187888869119</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.948120986848742</v>
+        <v>-6.948120986848745</v>
       </c>
       <c r="E25" t="n">
         <v>-5.30876711633299</v>
@@ -2502,10 +2502,10 @@
         <v>-3.908972213191792</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.019305169224611</v>
+        <v>-3.01930516922461</v>
       </c>
       <c r="I25" t="n">
-        <v>-4.708292109314913</v>
+        <v>-4.708292109314909</v>
       </c>
       <c r="J25" t="n">
         <v>5.415131830055299</v>
@@ -2547,7 +2547,7 @@
         <v>1.542144168640296</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6071007375666709</v>
+        <v>0.607100737566671</v>
       </c>
       <c r="X25" t="n">
         <v>2.859829028535287</v>
@@ -2556,10 +2556,10 @@
         <v>0.3330665710920993</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03380276186979977</v>
+        <v>0.03380276186979979</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.8777110721491094</v>
+        <v>0.8777110721491093</v>
       </c>
     </row>
     <row r="26">
@@ -2573,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.004997806317243</v>
+        <v>5.004997806317241</v>
       </c>
       <c r="E26" t="n">
         <v>3.289830037034166</v>
       </c>
       <c r="F26" t="n">
-        <v>6.665905258838781</v>
+        <v>6.665905258838782</v>
       </c>
       <c r="G26" t="n">
-        <v>2.656373802262282</v>
+        <v>2.656373802262275</v>
       </c>
       <c r="H26" t="n">
         <v>0.9210369776747998</v>
@@ -2597,19 +2597,19 @@
         <v>-2.071450461051676</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.4798881360737326</v>
+        <v>-0.479888136073729</v>
       </c>
       <c r="M26" t="n">
         <v>-4.225701510398812</v>
       </c>
       <c r="N26" t="n">
-        <v>-4.237053731618</v>
+        <v>-4.237053731617999</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.581361319155048</v>
+        <v>-3.581361319155052</v>
       </c>
       <c r="P26" t="n">
-        <v>1.575446442852332</v>
+        <v>1.575446442852333</v>
       </c>
       <c r="Q26" t="n">
         <v>0.742261606119401</v>
@@ -2624,7 +2624,7 @@
         <v>0.6901125293742616</v>
       </c>
       <c r="U26" t="n">
-        <v>2.872978948777892</v>
+        <v>2.872978948777891</v>
       </c>
       <c r="V26" t="n">
         <v>0.9946385929146699</v>
@@ -2636,10 +2636,10 @@
         <v>1.983673968670796</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2357877368913698</v>
+        <v>0.2357877368913699</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.009917535416561809</v>
+        <v>0.009917535416561801</v>
       </c>
       <c r="AA26" t="n">
         <v>0.6991593150844235</v>
@@ -2668,7 +2668,7 @@
         <v>35.59130913808012</v>
       </c>
       <c r="H27" t="n">
-        <v>25.4324080707149</v>
+        <v>25.43240807071489</v>
       </c>
       <c r="I27" t="n">
         <v>45.75860203815627</v>
@@ -2683,31 +2683,31 @@
         <v>29.59584402790751</v>
       </c>
       <c r="M27" t="n">
-        <v>5.353238911126734</v>
+        <v>5.353238911126733</v>
       </c>
       <c r="N27" t="n">
         <v>2.883973731554756</v>
       </c>
       <c r="O27" t="n">
-        <v>8.763192962416326</v>
+        <v>8.763192962416328</v>
       </c>
       <c r="P27" t="n">
-        <v>1.344187580450277</v>
+        <v>1.344187580450278</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.395616740527903</v>
+        <v>0.3956167405279025</v>
       </c>
       <c r="R27" t="n">
-        <v>2.927988095165633</v>
+        <v>2.927988095165632</v>
       </c>
       <c r="S27" t="n">
         <v>0.574815390828864</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1020652956591372</v>
+        <v>0.1020652956591371</v>
       </c>
       <c r="U27" t="n">
-        <v>1.342848160807531</v>
+        <v>1.34284816080753</v>
       </c>
       <c r="V27" t="n">
         <v>0.2248789689765849</v>
@@ -2716,13 +2716,13 @@
         <v>0.01270624941942994</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6300523285465389</v>
+        <v>0.6300523285465391</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03715229190547203</v>
+        <v>0.03715229190547206</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.01402863897777402</v>
+        <v>-0.01402863897777405</v>
       </c>
       <c r="AA27" t="n">
         <v>0.1469222181319489</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.096576456806837</v>
+        <v>1.096576456806836</v>
       </c>
       <c r="E28" t="n">
         <v>0.7100960391537461</v>
@@ -2748,7 +2748,7 @@
         <v>1.574359825921759</v>
       </c>
       <c r="G28" t="n">
-        <v>9.154325583708024</v>
+        <v>9.154325583708028</v>
       </c>
       <c r="H28" t="n">
         <v>6.736451382606742</v>
@@ -2781,7 +2781,7 @@
         <v>2.749397102014058</v>
       </c>
       <c r="R28" t="n">
-        <v>8.06127685816061</v>
+        <v>8.061276858160612</v>
       </c>
       <c r="S28" t="n">
         <v>2.614541903039298</v>
@@ -2805,7 +2805,7 @@
         <v>0.2609957346690368</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02210553703885504</v>
+        <v>0.02210553703885505</v>
       </c>
       <c r="AA28" t="n">
         <v>0.6814895705856575</v>
@@ -2831,7 +2831,7 @@
         <v>13.95032221451511</v>
       </c>
       <c r="G29" t="n">
-        <v>7.364440901925565</v>
+        <v>7.36444090192556</v>
       </c>
       <c r="H29" t="n">
         <v>4.019192835007138</v>
@@ -2846,7 +2846,7 @@
         <v>-7.114129957352786</v>
       </c>
       <c r="L29" t="n">
-        <v>-7.511149868874021</v>
+        <v>-7.511149868874018</v>
       </c>
       <c r="M29" t="n">
         <v>-16.55040706504559</v>
@@ -2858,10 +2858,10 @@
         <v>-18.61018727668749</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.476405218535668</v>
+        <v>-1.476405218535667</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.103125343574352</v>
+        <v>-1.103125343574353</v>
       </c>
       <c r="R29" t="n">
         <v>-1.953803833095954</v>
@@ -2882,13 +2882,13 @@
         <v>0.1636207299349742</v>
       </c>
       <c r="X29" t="n">
-        <v>1.485903575797699</v>
+        <v>1.485903575797698</v>
       </c>
       <c r="Y29" t="n">
         <v>0.1919832306843036</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.007459896676194774</v>
+        <v>-0.007459896676194799</v>
       </c>
       <c r="AA29" t="n">
         <v>0.6316182561395329</v>
@@ -2917,7 +2917,7 @@
         <v>11.11384322143955</v>
       </c>
       <c r="H30" t="n">
-        <v>7.388537069384775</v>
+        <v>7.388537069384774</v>
       </c>
       <c r="I30" t="n">
         <v>15.03117580409094</v>
@@ -2932,22 +2932,22 @@
         <v>10.11770632274545</v>
       </c>
       <c r="M30" t="n">
-        <v>1.958886470329443</v>
+        <v>1.958886470329441</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4041588831874012</v>
+        <v>0.404158883187403</v>
       </c>
       <c r="O30" t="n">
-        <v>4.108526451253161</v>
+        <v>4.108526451253159</v>
       </c>
       <c r="P30" t="n">
-        <v>2.340696708328671</v>
+        <v>2.340696708328672</v>
       </c>
       <c r="Q30" t="n">
         <v>1.137165695420078</v>
       </c>
       <c r="R30" t="n">
-        <v>3.907400317724852</v>
+        <v>3.907400317724851</v>
       </c>
       <c r="S30" t="n">
         <v>1.620515847068968</v>
@@ -2965,13 +2965,13 @@
         <v>0.2856383132347277</v>
       </c>
       <c r="X30" t="n">
-        <v>1.749827421917303</v>
+        <v>1.749827421917302</v>
       </c>
       <c r="Y30" t="n">
         <v>0.1947554386429871</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.007626671032359079</v>
+        <v>0.00762667103235907</v>
       </c>
       <c r="AA30" t="n">
         <v>0.5673339551520704</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.396352405975527</v>
+        <v>8.396352405975529</v>
       </c>
       <c r="E31" t="n">
         <v>6.288646870958335</v>
@@ -3045,7 +3045,7 @@
         <v>1.047194677994553</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4005265271580351</v>
+        <v>0.4005265271580352</v>
       </c>
       <c r="X31" t="n">
         <v>1.998795934591334</v>
@@ -3054,7 +3054,7 @@
         <v>0.1930404886378738</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02329295195816505</v>
+        <v>0.02329295195816506</v>
       </c>
       <c r="AA31" t="n">
         <v>0.4937267428668687</v>
@@ -3077,7 +3077,7 @@
         <v>3.129286711320609</v>
       </c>
       <c r="F32" t="n">
-        <v>4.691959694342695</v>
+        <v>4.691959694342696</v>
       </c>
       <c r="G32" t="n">
         <v>16.9598463885582</v>
@@ -3092,7 +3092,7 @@
         <v>26.59199996019797</v>
       </c>
       <c r="K32" t="n">
-        <v>18.94125633654807</v>
+        <v>18.94125633654806</v>
       </c>
       <c r="L32" t="n">
         <v>33.88538940091539</v>
@@ -3104,7 +3104,7 @@
         <v>19.87834319605033</v>
       </c>
       <c r="O32" t="n">
-        <v>35.48421092801445</v>
+        <v>35.48421092801446</v>
       </c>
       <c r="P32" t="n">
         <v>7.633268353564205</v>
@@ -3131,16 +3131,16 @@
         <v>0.5084710121109985</v>
       </c>
       <c r="X32" t="n">
-        <v>2.267734994928766</v>
+        <v>2.267734994928767</v>
       </c>
       <c r="Y32" t="n">
         <v>0.2282422464892439</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02836545751791902</v>
+        <v>0.02836545751791903</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.543486216669357</v>
+        <v>0.5434862166693569</v>
       </c>
     </row>
     <row r="33">
@@ -3160,10 +3160,10 @@
         <v>7.868612281231766</v>
       </c>
       <c r="F33" t="n">
-        <v>13.12458206225044</v>
+        <v>13.12458206225045</v>
       </c>
       <c r="G33" t="n">
-        <v>20.56849370344878</v>
+        <v>20.56849370344879</v>
       </c>
       <c r="H33" t="n">
         <v>15.02456583210551</v>
@@ -3178,7 +3178,7 @@
         <v>14.10424623600492</v>
       </c>
       <c r="L33" t="n">
-        <v>26.86645830084662</v>
+        <v>26.86645830084661</v>
       </c>
       <c r="M33" t="n">
         <v>15.62014498430205</v>
@@ -3187,7 +3187,7 @@
         <v>10.74297001879114</v>
       </c>
       <c r="O33" t="n">
-        <v>20.82240340462207</v>
+        <v>20.82240340462208</v>
       </c>
       <c r="P33" t="n">
         <v>4.695190188031212</v>
@@ -3205,7 +3205,7 @@
         <v>0.9243227929438841</v>
       </c>
       <c r="U33" t="n">
-        <v>3.675480710799753</v>
+        <v>3.675480710799754</v>
       </c>
       <c r="V33" t="n">
         <v>0.8959572425062744</v>
@@ -3220,7 +3220,7 @@
         <v>0.1754634243545843</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01214745185966668</v>
+        <v>0.01214745185966667</v>
       </c>
       <c r="AA33" t="n">
         <v>0.4572993351289878</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>19.71458359750833</v>
+        <v>19.71458359750834</v>
       </c>
       <c r="E34" t="n">
         <v>14.24776056199227</v>
@@ -3249,7 +3249,7 @@
         <v>23.72966984789375</v>
       </c>
       <c r="H34" t="n">
-        <v>16.46497898431623</v>
+        <v>16.46497898431622</v>
       </c>
       <c r="I34" t="n">
         <v>31.23013896117408</v>
@@ -3258,28 +3258,28 @@
         <v>9.1122709138057</v>
       </c>
       <c r="K34" t="n">
-        <v>5.331580313089538</v>
+        <v>5.331580313089539</v>
       </c>
       <c r="L34" t="n">
         <v>13.6902043651301</v>
       </c>
       <c r="M34" t="n">
-        <v>-4.078195886139707</v>
+        <v>-4.078195886139708</v>
       </c>
       <c r="N34" t="n">
-        <v>-4.114314656492479</v>
+        <v>-4.114314656492478</v>
       </c>
       <c r="O34" t="n">
         <v>-3.046902518801035</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1109820603445133</v>
+        <v>0.1109820603445142</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.266686056353044</v>
+        <v>-0.2666860563530444</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8045385628224944</v>
+        <v>0.8045385628224935</v>
       </c>
       <c r="S34" t="n">
         <v>0.613567774026256</v>
@@ -3303,7 +3303,7 @@
         <v>0.1054314762237413</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.01146191222734811</v>
+        <v>-0.01146191222734814</v>
       </c>
       <c r="AA34" t="n">
         <v>0.3586446249770875</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.375882956453179</v>
+        <v>5.375882956453177</v>
       </c>
       <c r="E35" t="n">
         <v>3.609857098655346</v>
@@ -3344,13 +3344,13 @@
         <v>0.6543469895127121</v>
       </c>
       <c r="L35" t="n">
-        <v>4.797330486055703</v>
+        <v>4.797330486055705</v>
       </c>
       <c r="M35" t="n">
         <v>-1.494030781107496</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.001542844506612</v>
+        <v>-2.00154284450661</v>
       </c>
       <c r="O35" t="n">
         <v>-0.3786996936960509</v>
@@ -3359,7 +3359,7 @@
         <v>1.75896795784424</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7765047705998982</v>
+        <v>0.776504770599898</v>
       </c>
       <c r="R35" t="n">
         <v>2.980812865326591</v>
@@ -3386,7 +3386,7 @@
         <v>0.2309766406404669</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.006743106964078012</v>
+        <v>0.006743106964077997</v>
       </c>
       <c r="AA35" t="n">
         <v>0.6658768246603345</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.675116875632429</v>
+        <v>-2.675116875632431</v>
       </c>
       <c r="E36" t="n">
         <v>-2.00952245771097</v>
@@ -3412,13 +3412,13 @@
         <v>-3.190169238721944</v>
       </c>
       <c r="G36" t="n">
-        <v>4.548497205985476</v>
+        <v>4.548497205985479</v>
       </c>
       <c r="H36" t="n">
-        <v>3.448194922485363</v>
+        <v>3.448194922485365</v>
       </c>
       <c r="I36" t="n">
-        <v>5.588083173260406</v>
+        <v>5.588083173260408</v>
       </c>
       <c r="J36" t="n">
         <v>13.87262641111845</v>
@@ -3427,13 +3427,13 @@
         <v>9.632682308186064</v>
       </c>
       <c r="L36" t="n">
-        <v>17.98591505450374</v>
+        <v>17.98591505450373</v>
       </c>
       <c r="M36" t="n">
         <v>18.41038052423302</v>
       </c>
       <c r="N36" t="n">
-        <v>12.90436778522919</v>
+        <v>12.90436778522918</v>
       </c>
       <c r="O36" t="n">
         <v>23.85762466386712</v>
@@ -3442,7 +3442,7 @@
         <v>6.456949581385945</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.585022331690753</v>
+        <v>3.585022331690754</v>
       </c>
       <c r="R36" t="n">
         <v>10.00307781460518</v>
@@ -3469,7 +3469,7 @@
         <v>0.2920342728437165</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03151189748559705</v>
+        <v>0.03151189748559706</v>
       </c>
       <c r="AA36" t="n">
         <v>0.7458857122167563</v>
@@ -3495,16 +3495,16 @@
         <v>10.85633161736677</v>
       </c>
       <c r="G37" t="n">
-        <v>7.811912072371181</v>
+        <v>7.811912072371177</v>
       </c>
       <c r="H37" t="n">
-        <v>4.698507471907039</v>
+        <v>4.698507471907038</v>
       </c>
       <c r="I37" t="n">
         <v>11.32897143410762</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.694789548793022</v>
+        <v>-2.694789548793024</v>
       </c>
       <c r="K37" t="n">
         <v>-3.178474134980545</v>
@@ -3513,10 +3513,10 @@
         <v>-1.353827033226278</v>
       </c>
       <c r="M37" t="n">
-        <v>-8.970701314351857</v>
+        <v>-8.970701314351853</v>
       </c>
       <c r="N37" t="n">
-        <v>-7.699141365304945</v>
+        <v>-7.699141365304944</v>
       </c>
       <c r="O37" t="n">
         <v>-9.402688876656756</v>
@@ -3525,16 +3525,16 @@
         <v>0.1697247436180378</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.1399947321772497</v>
+        <v>-0.1399947321772501</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5499663397181873</v>
+        <v>0.5499663397181882</v>
       </c>
       <c r="S37" t="n">
         <v>1.150626753718027</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4148885896189259</v>
+        <v>0.4148885896189261</v>
       </c>
       <c r="U37" t="n">
         <v>2.085387076705725</v>
@@ -3552,7 +3552,7 @@
         <v>0.2092363566804869</v>
       </c>
       <c r="Z37" t="n">
-        <v>-6.853824743232109e-05</v>
+        <v>-6.853824743233844e-05</v>
       </c>
       <c r="AA37" t="n">
         <v>0.6440860847510641</v>
@@ -3578,7 +3578,7 @@
         <v>26.09825642823211</v>
       </c>
       <c r="G38" t="n">
-        <v>26.48189110457577</v>
+        <v>26.48189110457576</v>
       </c>
       <c r="H38" t="n">
         <v>18.6657945476831</v>
@@ -3605,13 +3605,13 @@
         <v>10.64782202617891</v>
       </c>
       <c r="P38" t="n">
-        <v>2.33884077298265</v>
+        <v>2.338840772982651</v>
       </c>
       <c r="Q38" t="n">
         <v>1.057105479864238</v>
       </c>
       <c r="R38" t="n">
-        <v>4.234896188034896</v>
+        <v>4.234896188034895</v>
       </c>
       <c r="S38" t="n">
         <v>1.080874286365355</v>
@@ -3635,10 +3635,10 @@
         <v>0.08646340022244475</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.003186989730304589</v>
+        <v>-0.00318698973030461</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.2725695840803546</v>
+        <v>0.2725695840803545</v>
       </c>
     </row>
     <row r="39">
@@ -3673,10 +3673,10 @@
         <v>4.784128590819746</v>
       </c>
       <c r="K39" t="n">
-        <v>2.091609373130225</v>
+        <v>2.091609373130226</v>
       </c>
       <c r="L39" t="n">
-        <v>8.38215916117187</v>
+        <v>8.382159161171874</v>
       </c>
       <c r="M39" t="n">
         <v>-7.325042702677898</v>
@@ -3685,22 +3685,22 @@
         <v>-6.471390429734313</v>
       </c>
       <c r="O39" t="n">
-        <v>-7.167110229610186</v>
+        <v>-7.167110229610183</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.3569731942849108</v>
+        <v>-0.3569731942849099</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.5340847639333144</v>
+        <v>-0.5340847639333153</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02379840483570916</v>
+        <v>0.02379840483570828</v>
       </c>
       <c r="S39" t="n">
         <v>0.6290678161038958</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1275524396656712</v>
+        <v>0.1275524396656713</v>
       </c>
       <c r="U39" t="n">
         <v>1.313796954091344</v>
@@ -3715,10 +3715,10 @@
         <v>1.142611422390245</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1326783622936277</v>
+        <v>0.1326783622936278</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.01118604986112493</v>
+        <v>-0.01118604986112496</v>
       </c>
       <c r="AA39" t="n">
         <v>0.438541671889873</v>
@@ -3735,28 +3735,28 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.556236750529538</v>
+        <v>-4.556236750529542</v>
       </c>
       <c r="E40" t="n">
         <v>-3.668944405483644</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.159563694911461</v>
+        <v>-5.159563694911459</v>
       </c>
       <c r="G40" t="n">
         <v>-4.356443383637407</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.698619806124513</v>
+        <v>-3.698619806124509</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.789141916145221</v>
+        <v>-4.789141916145217</v>
       </c>
       <c r="J40" t="n">
         <v>0.2409397755581306</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.4744113004678461</v>
+        <v>-0.4744113004678479</v>
       </c>
       <c r="L40" t="n">
         <v>1.230997760036812</v>
@@ -3765,10 +3765,10 @@
         <v>4.646086792811028</v>
       </c>
       <c r="N40" t="n">
-        <v>2.541243672399358</v>
+        <v>2.54124367239936</v>
       </c>
       <c r="O40" t="n">
-        <v>6.960238493428175</v>
+        <v>6.960238493428173</v>
       </c>
       <c r="P40" t="n">
         <v>4.045569353755901</v>
@@ -3798,10 +3798,10 @@
         <v>2.650711301980145</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.3158134450959159</v>
+        <v>0.315813445095916</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.02641140344103732</v>
+        <v>0.02641140344103733</v>
       </c>
       <c r="AA40" t="n">
         <v>0.8652432435375782</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.437886262087567</v>
+        <v>-5.437886262087569</v>
       </c>
       <c r="E41" t="n">
         <v>-3.969372230181498</v>
@@ -3827,13 +3827,13 @@
         <v>-6.806492891134224</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.156750956509777</v>
+        <v>-1.156750956509775</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.8184896058577378</v>
+        <v>-0.8184896058577342</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.616820970585456</v>
+        <v>-1.616820970585453</v>
       </c>
       <c r="J41" t="n">
         <v>15.04999291747759</v>
@@ -3851,13 +3851,13 @@
         <v>16.39076839614222</v>
       </c>
       <c r="O41" t="n">
-        <v>29.86246143843886</v>
+        <v>29.86246143843885</v>
       </c>
       <c r="P41" t="n">
-        <v>7.919558028547744</v>
+        <v>7.919558028547743</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.513909778607359</v>
+        <v>4.51390977860736</v>
       </c>
       <c r="R41" t="n">
         <v>12.09072606546123</v>
@@ -3884,7 +3884,7 @@
         <v>0.3140984950908027</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0420776843668433</v>
+        <v>0.04207768436684332</v>
       </c>
       <c r="AA41" t="n">
         <v>0.7916360312523765</v>
@@ -3967,7 +3967,7 @@
         <v>0.1582102983584009</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.004756093430904227</v>
+        <v>0.004756093430904213</v>
       </c>
       <c r="AA42" t="n">
         <v>0.4448315065174566</v>
@@ -3993,10 +3993,10 @@
         <v>12.30339301829235</v>
       </c>
       <c r="G43" t="n">
-        <v>10.5641333290532</v>
+        <v>10.56413332905319</v>
       </c>
       <c r="H43" t="n">
-        <v>6.899323035273914</v>
+        <v>6.899323035273913</v>
       </c>
       <c r="I43" t="n">
         <v>14.42044257283707</v>
@@ -4005,19 +4005,19 @@
         <v>6.940071538629271</v>
       </c>
       <c r="K43" t="n">
-        <v>4.202822023108979</v>
+        <v>4.20282202310898</v>
       </c>
       <c r="L43" t="n">
         <v>10.12387163911121</v>
       </c>
       <c r="M43" t="n">
-        <v>2.061921687778817</v>
+        <v>2.061921687778815</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4284718604134898</v>
+        <v>0.4284718604134916</v>
       </c>
       <c r="O43" t="n">
-        <v>4.292035668323191</v>
+        <v>4.292035668323189</v>
       </c>
       <c r="P43" t="n">
         <v>2.397583456256175</v>
@@ -4026,7 +4026,7 @@
         <v>1.183796804040032</v>
       </c>
       <c r="R43" t="n">
-        <v>3.98032396493059</v>
+        <v>3.980323964930589</v>
       </c>
       <c r="S43" t="n">
         <v>1.617933266057126</v>
@@ -4041,7 +4041,7 @@
         <v>0.8603362662717914</v>
       </c>
       <c r="W43" t="n">
-        <v>0.2785089438582816</v>
+        <v>0.2785089438582817</v>
       </c>
       <c r="X43" t="n">
         <v>1.73487208847173</v>
@@ -4050,7 +4050,7 @@
         <v>0.1902682806791904</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.008206384249611204</v>
+        <v>0.008206384249611193</v>
       </c>
       <c r="AA43" t="n">
         <v>0.5580110438543312</v>
@@ -4067,22 +4067,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.562539138959568</v>
+        <v>-4.562539138959571</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.269460806363223</v>
+        <v>-3.269460806363222</v>
       </c>
       <c r="F44" t="n">
         <v>-5.71005712975457</v>
       </c>
       <c r="G44" t="n">
-        <v>4.446258484044738</v>
+        <v>4.446258484044743</v>
       </c>
       <c r="H44" t="n">
-        <v>3.638295525274402</v>
+        <v>3.638295525274406</v>
       </c>
       <c r="I44" t="n">
-        <v>5.058199748836856</v>
+        <v>5.058199748836858</v>
       </c>
       <c r="J44" t="n">
         <v>19.1130818205852</v>
@@ -4103,10 +4103,10 @@
         <v>33.24863228096788</v>
       </c>
       <c r="P44" t="n">
-        <v>8.159966291467155</v>
+        <v>8.159966291467153</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.59478405170781</v>
+        <v>4.594784051707811</v>
       </c>
       <c r="R44" t="n">
         <v>12.57977163462506</v>
@@ -4133,7 +4133,7 @@
         <v>0.3048002408761031</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03948296913161162</v>
+        <v>0.03948296913161164</v>
       </c>
       <c r="AA44" t="n">
         <v>0.7490306295305481</v>
@@ -4171,7 +4171,7 @@
         <v>13.50667659176124</v>
       </c>
       <c r="K45" t="n">
-        <v>8.674385950927835</v>
+        <v>8.674385950927837</v>
       </c>
       <c r="L45" t="n">
         <v>19.00441488545409</v>
@@ -4180,19 +4180,19 @@
         <v>-0.7283138521521444</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.732925906024557</v>
+        <v>-1.732925906024556</v>
       </c>
       <c r="O45" t="n">
         <v>1.256814409078148</v>
       </c>
       <c r="P45" t="n">
-        <v>0.6358240629014418</v>
+        <v>0.6358240629014427</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.04734375984718087</v>
+        <v>0.04734375984717998</v>
       </c>
       <c r="R45" t="n">
-        <v>1.658202368015017</v>
+        <v>1.658202368015015</v>
       </c>
       <c r="S45" t="n">
         <v>0.5954851509367738</v>
@@ -4210,13 +4210,13 @@
         <v>0.04360289634996367</v>
       </c>
       <c r="X45" t="n">
-        <v>0.84894354185446</v>
+        <v>0.8489435418544597</v>
       </c>
       <c r="Y45" t="n">
         <v>0.07369743219005814</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.01115806137631917</v>
+        <v>-0.01115806137631919</v>
       </c>
       <c r="AA45" t="n">
         <v>0.2694246667665627</v>
@@ -4233,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4.120197100544199</v>
+        <v>4.1201971005442</v>
       </c>
       <c r="E46" t="n">
         <v>3.189144011896524</v>
       </c>
       <c r="F46" t="n">
-        <v>4.743729345194463</v>
+        <v>4.743729345194464</v>
       </c>
       <c r="G46" t="n">
         <v>10.25741716323098</v>
       </c>
       <c r="H46" t="n">
-        <v>7.469624843641034</v>
+        <v>7.469624843641035</v>
       </c>
       <c r="I46" t="n">
         <v>12.83079229956642</v>
@@ -4269,10 +4269,10 @@
         <v>32.46505851962548</v>
       </c>
       <c r="P46" t="n">
-        <v>7.506633586499801</v>
+        <v>7.506633586499802</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.213081964091203</v>
+        <v>4.213081964091204</v>
       </c>
       <c r="R46" t="n">
         <v>11.71040542499023</v>
@@ -4290,7 +4290,7 @@
         <v>1.241350628838093</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4954018580704812</v>
+        <v>0.4954018580704813</v>
       </c>
       <c r="X46" t="n">
         <v>2.317359267800436</v>
@@ -4299,10 +4299,10 @@
         <v>0.2285661847763502</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.03211959918765493</v>
+        <v>0.03211959918765495</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.5674457957957066</v>
+        <v>0.5674457957957068</v>
       </c>
     </row>
     <row r="47">
@@ -4334,7 +4334,7 @@
         <v>33.87257648231029</v>
       </c>
       <c r="J47" t="n">
-        <v>29.16177946519191</v>
+        <v>29.16177946519192</v>
       </c>
       <c r="K47" t="n">
         <v>20.68702281380253</v>
@@ -4346,16 +4346,16 @@
         <v>22.2168738348278</v>
       </c>
       <c r="N47" t="n">
-        <v>15.4814345425009</v>
+        <v>15.48143454250089</v>
       </c>
       <c r="O47" t="n">
         <v>29.24632804331041</v>
       </c>
       <c r="P47" t="n">
-        <v>5.687987445217564</v>
+        <v>5.687987445217565</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.029997811278397</v>
+        <v>3.029997811278398</v>
       </c>
       <c r="R47" t="n">
         <v>9.315360180868916</v>
@@ -4364,7 +4364,7 @@
         <v>2.05423513823436</v>
       </c>
       <c r="T47" t="n">
-        <v>0.914736029967357</v>
+        <v>0.9147360299673569</v>
       </c>
       <c r="U47" t="n">
         <v>3.697387044656308</v>
@@ -4385,7 +4385,7 @@
         <v>0.01217544034447244</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.2881823300056775</v>
+        <v>0.2881823300056776</v>
       </c>
     </row>
     <row r="48">
@@ -4408,28 +4408,28 @@
         <v>16.49381937682034</v>
       </c>
       <c r="G48" t="n">
-        <v>15.7196715991621</v>
+        <v>15.71967159916209</v>
       </c>
       <c r="H48" t="n">
         <v>10.67679352950615</v>
       </c>
       <c r="I48" t="n">
-        <v>21.01461348542908</v>
+        <v>21.01461348542907</v>
       </c>
       <c r="J48" t="n">
         <v>5.828968387239716</v>
       </c>
       <c r="K48" t="n">
-        <v>3.095798349180109</v>
+        <v>3.09579834918011</v>
       </c>
       <c r="L48" t="n">
-        <v>9.249932741958661</v>
+        <v>9.249932741958663</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.683078116174226</v>
+        <v>-2.683078116174228</v>
       </c>
       <c r="N48" t="n">
-        <v>-3.033615773273456</v>
+        <v>-3.033615773273454</v>
       </c>
       <c r="O48" t="n">
         <v>-1.529291889178515</v>
@@ -4438,7 +4438,7 @@
         <v>0.9918617570218804</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3015404657433818</v>
+        <v>0.3015404657433813</v>
       </c>
       <c r="R48" t="n">
         <v>1.96559936128028</v>
@@ -4447,7 +4447,7 @@
         <v>1.124791831586432</v>
       </c>
       <c r="T48" t="n">
-        <v>0.401513655810311</v>
+        <v>0.4015136558103111</v>
       </c>
       <c r="U48" t="n">
         <v>2.098436533964126</v>
@@ -4465,7 +4465,7 @@
         <v>0.1637169004683074</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.001779689414382928</v>
+        <v>-0.001779689414382946</v>
       </c>
       <c r="AA48" t="n">
         <v>0.5029378135209717</v>
@@ -4491,28 +4491,28 @@
         <v>-12.220503584018</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.763432191814546</v>
+        <v>-6.763432191814543</v>
       </c>
       <c r="H49" t="n">
-        <v>-5.030020129802447</v>
+        <v>-5.030020129802444</v>
       </c>
       <c r="I49" t="n">
-        <v>-8.329646672467918</v>
+        <v>-8.329646672467915</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02072615209976</v>
+        <v>1.020726152099758</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1184388840660979</v>
+        <v>0.1184388840660962</v>
       </c>
       <c r="L49" t="n">
-        <v>2.074110075360567</v>
+        <v>2.074110075360565</v>
       </c>
       <c r="M49" t="n">
-        <v>8.875910509517199</v>
+        <v>8.875910509517201</v>
       </c>
       <c r="N49" t="n">
-        <v>5.88176641995586</v>
+        <v>5.881766419955861</v>
       </c>
       <c r="O49" t="n">
         <v>11.86401996557973</v>
@@ -4524,7 +4524,7 @@
         <v>2.876088426189852</v>
       </c>
       <c r="R49" t="n">
-        <v>7.806704635056304</v>
+        <v>7.806704635056306</v>
       </c>
       <c r="S49" t="n">
         <v>3.151600882731068</v>
@@ -4533,7 +4533,7 @@
         <v>1.501894388922613</v>
       </c>
       <c r="U49" t="n">
-        <v>5.203279350801162</v>
+        <v>5.203279350801161</v>
       </c>
       <c r="V49" t="n">
         <v>1.630754589639366</v>
@@ -4548,7 +4548,7 @@
         <v>0.3648006151257824</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.03349891101877084</v>
+        <v>0.03349891101877085</v>
       </c>
       <c r="AA49" t="n">
         <v>0.9669310303596341</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>7.263305219780318</v>
+        <v>7.263305219780316</v>
       </c>
       <c r="E50" t="n">
         <v>4.869795447307598</v>
@@ -4574,28 +4574,28 @@
         <v>9.708126205135351</v>
       </c>
       <c r="G50" t="n">
-        <v>8.911331857143885</v>
+        <v>8.911331857143882</v>
       </c>
       <c r="H50" t="n">
-        <v>5.676935540128762</v>
+        <v>5.676935540128761</v>
       </c>
       <c r="I50" t="n">
         <v>12.55043789661534</v>
       </c>
       <c r="J50" t="n">
-        <v>-2.827316258732193</v>
+        <v>-2.827316258732194</v>
       </c>
       <c r="K50" t="n">
         <v>-3.384143530738514</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.366157665957797</v>
+        <v>-1.366157665957793</v>
       </c>
       <c r="M50" t="n">
         <v>-9.176771749250605</v>
       </c>
       <c r="N50" t="n">
-        <v>-7.747767319757124</v>
+        <v>-7.747767319757123</v>
       </c>
       <c r="O50" t="n">
         <v>-9.769707310796816</v>
@@ -4604,16 +4604,16 @@
         <v>0.05595124776303084</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.233256949417159</v>
+        <v>-0.2332569494171595</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4041190453067109</v>
+        <v>0.4041190453067118</v>
       </c>
       <c r="S50" t="n">
         <v>1.155791915741711</v>
       </c>
       <c r="T50" t="n">
-        <v>0.412363142397534</v>
+        <v>0.4123631423975341</v>
       </c>
       <c r="U50" t="n">
         <v>2.079482492306957</v>
@@ -4625,16 +4625,16 @@
         <v>0.2573064761350455</v>
       </c>
       <c r="X50" t="n">
-        <v>1.724931969243985</v>
+        <v>1.724931969243986</v>
       </c>
       <c r="Y50" t="n">
         <v>0.2182106726080803</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.001227964681936568</v>
+        <v>-0.001227964681936589</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.6627319073465427</v>
+        <v>0.6627319073465426</v>
       </c>
     </row>
     <row r="51">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-16.00174237648844</v>
+        <v>-16.00174237648845</v>
       </c>
       <c r="E51" t="n">
         <v>-12.08739899621392</v>
@@ -4660,16 +4660,16 @@
         <v>-15.8728502253189</v>
       </c>
       <c r="H51" t="n">
-        <v>-11.79663365283425</v>
+        <v>-11.79663365283424</v>
       </c>
       <c r="I51" t="n">
-        <v>-19.76663861072065</v>
+        <v>-19.76663861072064</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.130049664527057</v>
+        <v>-2.130049664527055</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.911673684085359</v>
+        <v>-1.911673684085361</v>
       </c>
       <c r="L51" t="n">
         <v>-2.353830915079357</v>
@@ -4678,16 +4678,16 @@
         <v>10.47709871438143</v>
       </c>
       <c r="N51" t="n">
-        <v>7.011091257627061</v>
+        <v>7.011091257627062</v>
       </c>
       <c r="O51" t="n">
         <v>13.74864902934231</v>
       </c>
       <c r="P51" t="n">
-        <v>6.161510505885053</v>
+        <v>6.161510505885052</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.537577165526187</v>
+        <v>3.537577165526188</v>
       </c>
       <c r="R51" t="n">
         <v>9.113612727925569</v>
@@ -4711,10 +4711,10 @@
         <v>3.427194241943455</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.4141117234427551</v>
+        <v>0.4141117234427552</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.04434056026624027</v>
+        <v>0.04434056026624029</v>
       </c>
       <c r="AA51" t="n">
         <v>1.09257839630804</v>
@@ -4731,31 +4731,31 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.173806096855379</v>
+        <v>-2.173806096855382</v>
       </c>
       <c r="E52" t="n">
         <v>-1.429896295953665</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.891313250027788</v>
+        <v>-2.891313250027786</v>
       </c>
       <c r="G52" t="n">
-        <v>8.400138247440196</v>
+        <v>8.400138247440202</v>
       </c>
       <c r="H52" t="n">
-        <v>6.627438554073959</v>
+        <v>6.627438554073962</v>
       </c>
       <c r="I52" t="n">
-        <v>9.901020774497583</v>
+        <v>9.901020774497585</v>
       </c>
       <c r="J52" t="n">
-        <v>23.37496078860158</v>
+        <v>23.37496078860157</v>
       </c>
       <c r="K52" t="n">
         <v>16.80830907051762</v>
       </c>
       <c r="L52" t="n">
-        <v>29.45128309410971</v>
+        <v>29.4512830941097</v>
       </c>
       <c r="M52" t="n">
         <v>29.23693309146494</v>
@@ -4767,7 +4767,7 @@
         <v>37.185330774707</v>
       </c>
       <c r="P52" t="n">
-        <v>8.571034798169077</v>
+        <v>8.571034798169075</v>
       </c>
       <c r="Q52" t="n">
         <v>4.815551650668127</v>
@@ -4794,10 +4794,10 @@
         <v>2.695743934791829</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.2820405127700134</v>
+        <v>0.2820405127700133</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.03862739354813632</v>
+        <v>0.03862739354813634</v>
       </c>
       <c r="AA52" t="n">
         <v>0.6784564939155019</v>
@@ -4823,10 +4823,10 @@
         <v>22.98065655981117</v>
       </c>
       <c r="G53" t="n">
-        <v>18.67637029972559</v>
+        <v>18.67637029972558</v>
       </c>
       <c r="H53" t="n">
-        <v>12.49740788729495</v>
+        <v>12.49740788729494</v>
       </c>
       <c r="I53" t="n">
         <v>25.16585147300563</v>
@@ -4835,34 +4835,34 @@
         <v>4.982918655728502</v>
       </c>
       <c r="K53" t="n">
-        <v>2.400113466767181</v>
+        <v>2.400113466767182</v>
       </c>
       <c r="L53" t="n">
-        <v>8.400655110269147</v>
+        <v>8.400655110269151</v>
       </c>
       <c r="M53" t="n">
         <v>-7.015937050329772</v>
       </c>
       <c r="N53" t="n">
-        <v>-6.398451498056047</v>
+        <v>-6.398451498056045</v>
       </c>
       <c r="O53" t="n">
         <v>-6.616582578400093</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.1863129505024004</v>
+        <v>-0.1863129505023995</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.3941914380734506</v>
+        <v>-0.3941914380734515</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2425693464529237</v>
+        <v>0.2425693464529219</v>
       </c>
       <c r="S53" t="n">
         <v>0.6213200730683686</v>
       </c>
       <c r="T53" t="n">
-        <v>0.131340610497759</v>
+        <v>0.1313406104977591</v>
       </c>
       <c r="U53" t="n">
         <v>1.322653830689497</v>
@@ -4880,7 +4880,7 @@
         <v>0.1192168884022376</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.00944691020936856</v>
+        <v>-0.009446910209368588</v>
       </c>
       <c r="AA53" t="n">
         <v>0.4105729379966551</v>
@@ -4897,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.102878845236865</v>
+        <v>1.102878845236862</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3106124400333248</v>
+        <v>0.3106124400333243</v>
       </c>
       <c r="F54" t="n">
-        <v>2.124853260764868</v>
+        <v>2.124853260764867</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3516237160258786</v>
+        <v>0.3516237160258768</v>
       </c>
       <c r="H54" t="n">
         <v>-0.6004639487921741</v>
@@ -4921,22 +4921,22 @@
         <v>-5.517090796768958</v>
       </c>
       <c r="L54" t="n">
-        <v>-5.800263972763478</v>
+        <v>-5.800263972763474</v>
       </c>
       <c r="M54" t="n">
         <v>-7.67861876183575</v>
       </c>
       <c r="N54" t="n">
-        <v>-6.642755459312013</v>
+        <v>-6.642755459312009</v>
       </c>
       <c r="O54" t="n">
-        <v>-8.06858746410426</v>
+        <v>-8.068587464104263</v>
       </c>
       <c r="P54" t="n">
-        <v>0.993717692367901</v>
+        <v>0.9937176923679014</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3816006812992216</v>
+        <v>0.3816006812992212</v>
       </c>
       <c r="R54" t="n">
         <v>1.638103490970236</v>
@@ -4954,7 +4954,7 @@
         <v>1.093978642752555</v>
       </c>
       <c r="W54" t="n">
-        <v>0.3676301305127585</v>
+        <v>0.3676301305127584</v>
       </c>
       <c r="X54" t="n">
         <v>2.152940909107047</v>
@@ -4963,7 +4963,7 @@
         <v>0.2720089388888497</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.009033971348280743</v>
+        <v>0.009033971348280729</v>
       </c>
       <c r="AA54" t="n">
         <v>0.7977021845926876</v>
@@ -4980,22 +4980,22 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>3.491611887341054</v>
+        <v>3.491611887341051</v>
       </c>
       <c r="E55" t="n">
         <v>2.150176950442882</v>
       </c>
       <c r="F55" t="n">
-        <v>4.94359714049165</v>
+        <v>4.943597140491651</v>
       </c>
       <c r="G55" t="n">
-        <v>4.305503479421336</v>
+        <v>4.305503479421334</v>
       </c>
       <c r="H55" t="n">
         <v>2.388679080007383</v>
       </c>
       <c r="I55" t="n">
-        <v>6.567000215277202</v>
+        <v>6.567000215277201</v>
       </c>
       <c r="J55" t="n">
         <v>-1.782476462312223</v>
@@ -5004,13 +5004,13 @@
         <v>-2.379954554688631</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.4983840851710077</v>
+        <v>-0.4983840851710042</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.534807162746937</v>
+        <v>-4.534807162746935</v>
       </c>
       <c r="N55" t="n">
-        <v>-4.309992663296266</v>
+        <v>-4.309992663296264</v>
       </c>
       <c r="O55" t="n">
         <v>-4.131888970365141</v>
@@ -5019,7 +5019,7 @@
         <v>1.404786199069822</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6023682802595371</v>
+        <v>0.6023682802595369</v>
       </c>
       <c r="R55" t="n">
         <v>2.345920001751282</v>
@@ -5043,13 +5043,13 @@
         <v>2.028539969007515</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2492492107827599</v>
+        <v>0.24924921078276</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.008178395764805439</v>
+        <v>0.008178395764805425</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.7271280489776415</v>
+        <v>0.7271280489776414</v>
       </c>
     </row>
     <row r="56">
@@ -5087,7 +5087,7 @@
         <v>14.90276581629684</v>
       </c>
       <c r="L56" t="n">
-        <v>27.72190124890189</v>
+        <v>27.72190124890188</v>
       </c>
       <c r="M56" t="n">
         <v>20.05603913590697</v>
@@ -5099,7 +5099,7 @@
         <v>26.09320331091369</v>
       </c>
       <c r="P56" t="n">
-        <v>5.930251643482997</v>
+        <v>5.930251643482996</v>
       </c>
       <c r="Q56" t="n">
         <v>3.190932299934689</v>
@@ -5120,7 +5120,7 @@
         <v>1.100842822188629</v>
       </c>
       <c r="W56" t="n">
-        <v>0.4361733740402654</v>
+        <v>0.4361733740402653</v>
       </c>
       <c r="X56" t="n">
         <v>2.073572601819198</v>
@@ -5149,10 +5149,10 @@
         <v>4.491082250680136</v>
       </c>
       <c r="E57" t="n">
-        <v>3.509171073517703</v>
+        <v>3.509171073517704</v>
       </c>
       <c r="F57" t="n">
-        <v>5.266062400458405</v>
+        <v>5.266062400458406</v>
       </c>
       <c r="G57" t="n">
         <v>16.41013649617185</v>
@@ -5170,7 +5170,7 @@
         <v>19.04409103442705</v>
       </c>
       <c r="L57" t="n">
-        <v>33.89155471728115</v>
+        <v>33.89155471728114</v>
       </c>
       <c r="M57" t="n">
         <v>27.84181532149946</v>
@@ -5212,7 +5212,7 @@
         <v>0.2237550885254472</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.02894517073517114</v>
+        <v>0.02894517073517115</v>
       </c>
       <c r="AA57" t="n">
         <v>0.5341633053716177</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>8.776691138756508</v>
+        <v>8.776691138756506</v>
       </c>
       <c r="E58" t="n">
         <v>6.009448533898881</v>
@@ -5238,46 +5238,46 @@
         <v>11.43043432348248</v>
       </c>
       <c r="G58" t="n">
-        <v>7.262202179984829</v>
+        <v>7.262202179984824</v>
       </c>
       <c r="H58" t="n">
-        <v>4.209293437796179</v>
+        <v>4.209293437796178</v>
       </c>
       <c r="I58" t="n">
         <v>10.71823820285376</v>
       </c>
       <c r="J58" t="n">
-        <v>-2.628526193823436</v>
+        <v>-2.628526193823438</v>
       </c>
       <c r="K58" t="n">
         <v>-3.075639437101559</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.347661716860522</v>
+        <v>-1.347661716860518</v>
       </c>
       <c r="M58" t="n">
-        <v>-8.867666096902482</v>
+        <v>-8.867666096902479</v>
       </c>
       <c r="N58" t="n">
-        <v>-7.674828388078857</v>
+        <v>-7.674828388078855</v>
       </c>
       <c r="O58" t="n">
-        <v>-9.219179659586727</v>
+        <v>-9.219179659586723</v>
       </c>
       <c r="P58" t="n">
         <v>0.2266114915455413</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.09336362355729522</v>
+        <v>-0.09336362355729566</v>
       </c>
       <c r="R58" t="n">
-        <v>0.6228899869239264</v>
+        <v>0.6228899869239255</v>
       </c>
       <c r="S58" t="n">
         <v>1.148044172706184</v>
       </c>
       <c r="T58" t="n">
-        <v>0.4161513132296218</v>
+        <v>0.416151313229622</v>
       </c>
       <c r="U58" t="n">
         <v>2.08833936890511</v>
@@ -5295,7 +5295,7 @@
         <v>0.2047491987166902</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.000511174969819804</v>
+        <v>0.0005111749698197832</v>
       </c>
       <c r="AA58" t="n">
         <v>0.6347631734533248</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>5.503157390879275</v>
+        <v>5.503157390879276</v>
       </c>
       <c r="E59" t="n">
         <v>4.069197998351682</v>
@@ -5369,16 +5369,16 @@
         <v>1.125075470154808</v>
       </c>
       <c r="W59" t="n">
-        <v>0.430233589376194</v>
+        <v>0.4302335893761941</v>
       </c>
       <c r="X59" t="n">
         <v>2.13815220813644</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2202873747077603</v>
+        <v>0.2202873747077602</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.02356881432438823</v>
+        <v>0.02356881432438824</v>
       </c>
       <c r="AA59" t="n">
         <v>0.5736237897796541</v>
@@ -5395,31 +5395,31 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>4.874572177676129</v>
+        <v>4.874572177676127</v>
       </c>
       <c r="E60" t="n">
         <v>3.03023093689804</v>
       </c>
       <c r="F60" t="n">
-        <v>6.889382325408568</v>
+        <v>6.889382325408567</v>
       </c>
       <c r="G60" t="n">
-        <v>4.957452093748428</v>
+        <v>4.957452093748423</v>
       </c>
       <c r="H60" t="n">
-        <v>2.687792511329205</v>
+        <v>2.687792511329204</v>
       </c>
       <c r="I60" t="n">
-        <v>7.707616870954615</v>
+        <v>7.707616870954613</v>
       </c>
       <c r="J60" t="n">
-        <v>-7.089195226748565</v>
+        <v>-7.089195226748561</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.521279772818842</v>
+        <v>-6.521279772818843</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.668037553550267</v>
+        <v>-6.668037553550263</v>
       </c>
       <c r="M60" t="n">
         <v>-12.32058334833942</v>
@@ -5428,16 +5428,16 @@
         <v>-10.08053011577287</v>
       </c>
       <c r="O60" t="n">
-        <v>-13.70640580453593</v>
+        <v>-13.70640580453594</v>
       </c>
       <c r="P60" t="n">
         <v>-0.3551172589388898</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.4540245483774745</v>
+        <v>-0.4540245483774754</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.3036974654743343</v>
+        <v>-0.3036974654743352</v>
       </c>
       <c r="S60" t="n">
         <v>1.168709376807509</v>
@@ -5458,10 +5458,10 @@
         <v>1.849332909343519</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.24097040071417</v>
+        <v>0.2409704007141701</v>
       </c>
       <c r="Z60" t="n">
-        <v>-0.0003723890984612642</v>
+        <v>-0.000372389098461285</v>
       </c>
       <c r="AA60" t="n">
         <v>0.7333060429615889</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>15.43527709786199</v>
+        <v>15.435277097862</v>
       </c>
       <c r="E61" t="n">
         <v>11.34799950249067</v>
@@ -5514,7 +5514,7 @@
         <v>15.55160349833046</v>
       </c>
       <c r="P61" t="n">
-        <v>3.460128732579427</v>
+        <v>3.460128732579428</v>
       </c>
       <c r="Q61" t="n">
         <v>1.706206275061116</v>
@@ -5544,7 +5544,7 @@
         <v>0.1354505702523112</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.003900517847428923</v>
+        <v>0.003900517847428909</v>
       </c>
       <c r="AA61" t="n">
         <v>0.3742573709024105</v>
@@ -5570,10 +5570,10 @@
         <v>10.30583818252366</v>
       </c>
       <c r="G62" t="n">
-        <v>16.61461394005332</v>
+        <v>16.61461394005333</v>
       </c>
       <c r="H62" t="n">
-        <v>12.03542280330596</v>
+        <v>12.03542280330595</v>
       </c>
       <c r="I62" t="n">
         <v>21.1763130990897</v>
@@ -5671,19 +5671,19 @@
         <v>24.28779882394928</v>
       </c>
       <c r="M63" t="n">
-        <v>2.106392094588543</v>
+        <v>2.106392094588545</v>
       </c>
       <c r="N63" t="n">
-        <v>0.5268979583129223</v>
+        <v>0.5268979583129214</v>
       </c>
       <c r="O63" t="n">
-        <v>4.642985251607174</v>
+        <v>4.642985251607179</v>
       </c>
       <c r="P63" t="n">
-        <v>0.876232325820852</v>
+        <v>0.8762323258208533</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.128218032947633</v>
+        <v>0.1282180329476321</v>
       </c>
       <c r="R63" t="n">
         <v>2.147247937178848</v>
@@ -5710,7 +5710,7 @@
         <v>0.06439917797535849</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.01375277661155084</v>
+        <v>-0.01375277661155087</v>
       </c>
       <c r="AA63" t="n">
         <v>0.2268192650447344</v>
@@ -5727,31 +5727,31 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>5.379034150668192</v>
+        <v>5.37903415066819</v>
       </c>
       <c r="E64" t="n">
-        <v>3.410115299095136</v>
+        <v>3.410115299095134</v>
       </c>
       <c r="F64" t="n">
-        <v>7.46348503152428</v>
+        <v>7.463485031524279</v>
       </c>
       <c r="G64" t="n">
-        <v>4.407742201362074</v>
+        <v>4.40774220136207</v>
       </c>
       <c r="H64" t="n">
         <v>2.198578477218343</v>
       </c>
       <c r="I64" t="n">
-        <v>7.096883639700755</v>
+        <v>7.096883639700753</v>
       </c>
       <c r="J64" t="n">
-        <v>-7.022931871778979</v>
+        <v>-7.022931871778976</v>
       </c>
       <c r="K64" t="n">
         <v>-6.418445074939857</v>
       </c>
       <c r="L64" t="n">
-        <v>-6.661872237184507</v>
+        <v>-6.661872237184504</v>
       </c>
       <c r="M64" t="n">
         <v>-12.21754813089004</v>
@@ -5766,7 +5766,7 @@
         <v>-0.2982305110113863</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.4073934397575201</v>
+        <v>-0.4073934397575205</v>
       </c>
       <c r="R64" t="n">
         <v>-0.230773818268597</v>
@@ -5778,7 +5778,7 @@
         <v>0.4203133329125375</v>
       </c>
       <c r="U64" t="n">
-        <v>2.075910055877141</v>
+        <v>2.07591005587714</v>
       </c>
       <c r="V64" t="n">
         <v>0.8998226919090149</v>
@@ -5793,7 +5793,7 @@
         <v>0.2364832427503734</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.0002073241187908609</v>
+        <v>0.0002073241187908401</v>
       </c>
       <c r="AA64" t="n">
         <v>0.7239831316638495</v>
@@ -5810,19 +5810,19 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7193889182408713</v>
+        <v>0.7193889182408695</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7895525766529872</v>
+        <v>0.7895525766529876</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5015333358147052</v>
+        <v>0.501533335814706</v>
       </c>
       <c r="G65" t="n">
-        <v>11.8043081184493</v>
+        <v>11.80430811844931</v>
       </c>
       <c r="H65" t="n">
-        <v>9.127367548762656</v>
+        <v>9.127367548762658</v>
       </c>
       <c r="I65" t="n">
         <v>14.13310856890445</v>
@@ -5840,10 +5840,10 @@
         <v>32.48377990800313</v>
       </c>
       <c r="N65" t="n">
-        <v>23.34043082973728</v>
+        <v>23.34043082973727</v>
       </c>
       <c r="O65" t="n">
-        <v>41.30553848551615</v>
+        <v>41.30553848551616</v>
       </c>
       <c r="P65" t="n">
         <v>9.0389900527985</v>
@@ -5873,10 +5873,10 @@
         <v>2.556387661246723</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2547936267001269</v>
+        <v>0.2547936267001268</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.03835153118191315</v>
+        <v>0.03835153118191317</v>
       </c>
       <c r="AA65" t="n">
         <v>0.5985594470027165</v>
@@ -5926,13 +5926,13 @@
         <v>-0.7494789317098887</v>
       </c>
       <c r="O66" t="n">
-        <v>2.040388170420545</v>
+        <v>2.040388170420547</v>
       </c>
       <c r="P66" t="n">
         <v>1.289156767868795</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.4290458474637879</v>
+        <v>0.4290458474637875</v>
       </c>
       <c r="R66" t="n">
         <v>2.527568577649851</v>
@@ -5959,7 +5959,7 @@
         <v>0.1499314882898111</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.003794691432362478</v>
+        <v>-0.003794691432362499</v>
       </c>
       <c r="AA66" t="n">
         <v>0.4510095005014041</v>
@@ -5985,7 +5985,7 @@
         <v>14.54803419190342</v>
       </c>
       <c r="G67" t="n">
-        <v>15.06772298483501</v>
+        <v>15.067722984835</v>
       </c>
       <c r="H67" t="n">
         <v>10.37768009818433</v>
@@ -6006,7 +6006,7 @@
         <v>5.102698069418255</v>
       </c>
       <c r="N67" t="n">
-        <v>2.736921679203147</v>
+        <v>2.736921679203148</v>
       </c>
       <c r="O67" t="n">
         <v>8.045224944992281</v>
@@ -6018,7 +6018,7 @@
         <v>1.357933294380393</v>
       </c>
       <c r="R67" t="n">
-        <v>4.615216828505898</v>
+        <v>4.615216828505897</v>
       </c>
       <c r="S67" t="n">
         <v>1.607598386003171</v>
@@ -6042,7 +6042,7 @@
         <v>0.1719957105368973</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.006771095448883777</v>
+        <v>0.006771095448883767</v>
       </c>
       <c r="AA67" t="n">
         <v>0.4967598195370243</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.7934673640744</v>
+        <v>-1.793467364074402</v>
       </c>
       <c r="E68" t="n">
         <v>-1.709094633013117</v>
@@ -6068,13 +6068,13 @@
         <v>-1.543240042499181</v>
       </c>
       <c r="G68" t="n">
-        <v>1.348804778857845</v>
+        <v>1.348804778857847</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5680647222185877</v>
+        <v>0.5680647222185886</v>
       </c>
       <c r="I68" t="n">
-        <v>2.415762227700645</v>
+        <v>2.415762227700643</v>
       </c>
       <c r="J68" t="n">
         <v>-0.9364267308010099</v>
@@ -6086,10 +6086,10 @@
         <v>0.3508935465185061</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.2019482285913909</v>
+        <v>-0.2019482285913892</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.9451569385136773</v>
+        <v>-0.9451569385136755</v>
       </c>
       <c r="O68" t="n">
         <v>0.9554017188564412</v>
@@ -6101,7 +6101,7 @@
         <v>1.298100184076369</v>
       </c>
       <c r="R68" t="n">
-        <v>4.068950016578639</v>
+        <v>4.06895001657864</v>
       </c>
       <c r="S68" t="n">
         <v>2.154987689742311</v>
@@ -6154,7 +6154,7 @@
         <v>28.4762532302397</v>
       </c>
       <c r="H69" t="n">
-        <v>21.00285188970463</v>
+        <v>21.00285188970462</v>
       </c>
       <c r="I69" t="n">
         <v>35.70477617607188</v>
@@ -6175,7 +6175,7 @@
         <v>15.40849561082263</v>
       </c>
       <c r="O69" t="n">
-        <v>28.69580039210031</v>
+        <v>28.69580039210032</v>
       </c>
       <c r="P69" t="n">
         <v>5.517327201435054</v>
@@ -6225,22 +6225,22 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.051774777537475</v>
+        <v>-4.051774777537477</v>
       </c>
       <c r="E70" t="n">
         <v>-3.28906004328655</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.585460988795751</v>
+        <v>-4.58546098879575</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.906153276023757</v>
+        <v>-4.90615327602376</v>
       </c>
       <c r="H70" t="n">
-        <v>-4.187833840235373</v>
+        <v>-4.187833840235371</v>
       </c>
       <c r="I70" t="n">
-        <v>-5.399875147399081</v>
+        <v>-5.399875147399078</v>
       </c>
       <c r="J70" t="n">
         <v>0.3072031305277161</v>
@@ -6252,13 +6252,13 @@
         <v>1.23716307640257</v>
       </c>
       <c r="M70" t="n">
-        <v>4.749122010260402</v>
+        <v>4.749122010260403</v>
       </c>
       <c r="N70" t="n">
-        <v>2.565556649625447</v>
+        <v>2.565556649625449</v>
       </c>
       <c r="O70" t="n">
-        <v>7.143747710498205</v>
+        <v>7.143747710498204</v>
       </c>
       <c r="P70" t="n">
         <v>4.102456101683405</v>
@@ -6276,7 +6276,7 @@
         <v>1.234246790831453</v>
       </c>
       <c r="U70" t="n">
-        <v>4.433401231925302</v>
+        <v>4.433401231925301</v>
       </c>
       <c r="V70" t="n">
         <v>1.393680123440565</v>
@@ -6288,7 +6288,7 @@
         <v>2.635755968534573</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.3113262871321192</v>
+        <v>0.3113262871321193</v>
       </c>
       <c r="Z70" t="n">
         <v>0.02699111665828945</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-8.835543250175881</v>
+        <v>-8.835543250175885</v>
       </c>
       <c r="E71" t="n">
         <v>-6.568705464985244</v>
@@ -6317,19 +6317,19 @@
         <v>-10.77344218309243</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.01121093513253</v>
+        <v>-4.011210935132526</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.829204566435574</v>
+        <v>-2.829204566435569</v>
       </c>
       <c r="I71" t="n">
-        <v>-5.238175533738461</v>
+        <v>-5.238175533738458</v>
       </c>
       <c r="J71" t="n">
         <v>10.65558723952205</v>
       </c>
       <c r="K71" t="n">
-        <v>7.499735042155622</v>
+        <v>7.499735042155621</v>
       </c>
       <c r="L71" t="n">
         <v>13.55180874769805</v>
@@ -6374,10 +6374,10 @@
         <v>0.3458325391244859</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.04177383351581435</v>
+        <v>0.04177383351581437</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.8808559894629012</v>
+        <v>0.8808559894629011</v>
       </c>
     </row>
     <row r="72">
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.7876946123052884</v>
+        <v>-0.7876946123052901</v>
       </c>
       <c r="E72" t="n">
         <v>-0.7495841090587172</v>
@@ -6400,10 +6400,10 @@
         <v>-0.6702813476893139</v>
       </c>
       <c r="G72" t="n">
-        <v>4.650735927926214</v>
+        <v>4.650735927926216</v>
       </c>
       <c r="H72" t="n">
-        <v>3.258094319696323</v>
+        <v>3.258094319696325</v>
       </c>
       <c r="I72" t="n">
         <v>6.11796659768396</v>
@@ -6451,7 +6451,7 @@
         <v>0.496777083188958</v>
       </c>
       <c r="X72" t="n">
-        <v>2.431820088672224</v>
+        <v>2.431820088672225</v>
       </c>
       <c r="Y72" t="n">
         <v>0.2792683048113299</v>
